--- a/SCOPE_v1.xx/input_data.xlsx
+++ b/SCOPE_v1.xx/input_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Modelling\SCOPE\SCOPE_v1.61beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Models\forward\SCOPE\SCOPE_v1.xx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="329">
   <si>
     <t>Cab</t>
   </si>
@@ -195,9 +195,6 @@
     <t>The_following_are_only_for_the_time_series_option!</t>
   </si>
   <si>
-    <t>for_verification</t>
-  </si>
-  <si>
     <t>t_file</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
   </si>
   <si>
     <t>atmos_file</t>
-  </si>
-  <si>
-    <t>The_following_three_are_always_required</t>
   </si>
   <si>
     <t>Do_not_enter_additional_colums_of_text_in_this_sheet</t>
@@ -700,9 +694,6 @@
     <t>broadband incoming shortwave radiation (0.4-2.5 um)</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>air temperature</t>
   </si>
   <si>
@@ -1174,9 +1165,6 @@
     <t>80 (C3) ,30 (C4)</t>
   </si>
   <si>
-    <t>optipar_fluspect_2014.txt</t>
-  </si>
-  <si>
     <t>Cca</t>
   </si>
   <si>
@@ -1208,13 +1196,25 @@
     </r>
   </si>
   <si>
-    <t>verificationdata</t>
-  </si>
-  <si>
     <t>specific heat capacity of the soil</t>
   </si>
   <si>
     <t>J kg-1 K-1</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>LIDF_file</t>
+  </si>
+  <si>
+    <t>optipar_fluspect_2015.txt</t>
+  </si>
+  <si>
+    <t>The_following_four_are_always_required</t>
+  </si>
+  <si>
+    <t>alfalfa</t>
   </si>
 </sst>
 </file>
@@ -1960,7 +1960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J96"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:C58"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1972,7 +1974,7 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1980,89 +1982,89 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2075,192 +2077,192 @@
         <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="36" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C56" s="49" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2270,7 +2272,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B58" s="11">
         <v>1</v>
@@ -2281,7 +2283,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B59" s="11">
         <v>-1</v>
@@ -2292,7 +2294,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B60" s="11">
         <v>0</v>
@@ -2303,7 +2305,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B61" s="11">
         <v>0</v>
@@ -2314,7 +2316,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B62" s="11">
         <v>-0.35</v>
@@ -2325,7 +2327,7 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B63" s="12">
         <v>0</v>
@@ -2336,14 +2338,14 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="51" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="52"/>
@@ -2355,42 +2357,42 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C69" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="F69" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="G69" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="H69" s="22" t="s">
         <v>239</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="I69" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="J69" s="23" t="s">
         <v>241</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="J69" s="23" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C70" s="25">
         <v>0.2</v>
@@ -2419,10 +2421,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C71" s="25">
         <v>0.2</v>
@@ -2451,10 +2453,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="24" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C72" s="25">
         <v>0.2</v>
@@ -2483,10 +2485,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C73" s="25">
         <v>0.2</v>
@@ -2515,10 +2517,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="24" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C74" s="25">
         <v>0.2</v>
@@ -2547,10 +2549,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="24" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C75" s="25">
         <v>0.2</v>
@@ -2579,10 +2581,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="24" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C76" s="25">
         <v>0.2</v>
@@ -2611,10 +2613,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="24" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C77" s="25">
         <v>0.2</v>
@@ -2643,10 +2645,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="24" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C78" s="25">
         <v>0.2</v>
@@ -2675,10 +2677,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="24" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C79" s="25">
         <v>0.2</v>
@@ -2707,10 +2709,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C80" s="25">
         <v>0.2</v>
@@ -2739,10 +2741,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C81" s="25">
         <v>0.2</v>
@@ -2771,10 +2773,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="31" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C82" s="33">
         <v>0.2</v>
@@ -2803,38 +2805,38 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="36" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C86" s="41" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D86" s="41" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E86" s="41" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F86" s="41" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="39" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B87" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D87" s="42">
         <v>1000</v>
@@ -2849,13 +2851,13 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="39" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C88" s="39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D88" s="42">
         <v>209</v>
@@ -2870,13 +2872,13 @@
     </row>
     <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="39" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B89" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C89" s="39" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D89" s="43">
         <v>1.4999999999999999E-2</v>
@@ -2891,13 +2893,13 @@
     </row>
     <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B90" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="39" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D90" s="43">
         <v>7</v>
@@ -2912,34 +2914,34 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="39" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B91" s="39" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="39" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G91" s="42"/>
     </row>
     <row r="92" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="39" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C92" s="39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D92" s="42">
         <v>380</v>
@@ -2953,16 +2955,16 @@
     </row>
     <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C93" s="39" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D93" s="42" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E93" s="42">
         <v>0</v>
@@ -2973,13 +2975,13 @@
     </row>
     <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C94" s="39" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D94" s="42">
         <v>1</v>
@@ -2993,13 +2995,13 @@
     </row>
     <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B95" s="44" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C95" s="44" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D95" s="45">
         <v>0</v>
@@ -3013,13 +3015,13 @@
     </row>
     <row r="96" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="46" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B96" s="46" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C96" s="46" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D96" s="47">
         <v>1</v>
@@ -3048,8 +3050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3065,7 +3067,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3076,21 +3078,21 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -3098,10 +3100,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3120,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3142,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3153,10 +3155,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -3175,10 +3177,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -3186,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="E15" t="s">
         <v>48</v>
@@ -3200,7 +3202,7 @@
         <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -3208,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,24 +3229,24 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="E20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3256,10 +3258,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,44 +3274,44 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3322,121 +3324,126 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3450,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DV84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3471,26 +3478,26 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AA6" s="8"/>
       <c r="AB6" s="5"/>
@@ -3506,28 +3513,28 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AA9"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AA10"/>
     </row>
@@ -3536,13 +3543,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>1.2E-2</v>
+        <v>3.536575975278193E-3</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AA11"/>
     </row>
@@ -3551,13 +3558,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>8.9999999999999993E-3</v>
+        <v>2.0150074856791416E-2</v>
       </c>
       <c r="H12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AA12"/>
     </row>
@@ -3566,13 +3573,13 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>4.5409799623269895E-2</v>
       </c>
       <c r="H13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA13"/>
     </row>
@@ -3581,13 +3588,19 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>1.4</v>
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AA14"/>
     </row>
@@ -3600,7 +3613,7 @@
       </c>
       <c r="E15" s="13"/>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AA15"/>
     </row>
@@ -3612,7 +3625,7 @@
         <v>0.01</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AA16"/>
     </row>
@@ -3621,7 +3634,7 @@
     </row>
     <row r="18" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:103" x14ac:dyDescent="0.25">
@@ -3629,13 +3642,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA19"/>
     </row>
@@ -3647,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="I20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AB20" s="9"/>
       <c r="AZ20" s="4"/>
@@ -3665,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AB21" s="9"/>
       <c r="AZ21" s="4"/>
@@ -3683,7 +3696,7 @@
         <v>0.63959999999999995</v>
       </c>
       <c r="I22" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA22"/>
     </row>
@@ -3695,7 +3708,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AB23" s="9"/>
       <c r="AZ23" s="4"/>
@@ -3725,7 +3738,7 @@
         <v>328</v>
       </c>
       <c r="I24" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AZ24" s="4"/>
       <c r="BY24" s="4"/>
@@ -3733,21 +3746,21 @@
     </row>
     <row r="25" spans="1:103" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AZ26" s="4"/>
       <c r="BY26" s="4"/>
@@ -3755,16 +3768,16 @@
     </row>
     <row r="27" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B27">
         <v>0.50700000000000001</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AZ27" s="4"/>
       <c r="BY27" s="4"/>
@@ -3772,16 +3785,16 @@
     </row>
     <row r="28" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AZ28" s="4"/>
       <c r="BY28" s="4"/>
@@ -3789,16 +3802,16 @@
     </row>
     <row r="29" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AZ29" s="4"/>
       <c r="BY29" s="4"/>
@@ -3806,13 +3819,13 @@
     </row>
     <row r="30" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AZ30" s="4"/>
       <c r="BY30" s="4"/>
@@ -3841,7 +3854,7 @@
       </c>
       <c r="G33" s="13"/>
       <c r="I33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AB33" s="9"/>
       <c r="AZ33" s="4"/>
@@ -3873,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AZ36" s="4"/>
       <c r="BY36" s="4"/>
@@ -3887,10 +3900,10 @@
         <v>500</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AZ37" s="4"/>
       <c r="BY37" s="4"/>
@@ -3904,7 +3917,7 @@
         <v>0.06</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AZ38" s="4"/>
       <c r="BY38" s="4"/>
@@ -3918,10 +3931,10 @@
         <v>1180</v>
       </c>
       <c r="H39" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I39" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AZ39" s="4"/>
       <c r="BY39" s="4"/>
@@ -3935,10 +3948,10 @@
         <v>1800</v>
       </c>
       <c r="H40" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AZ40" s="4"/>
       <c r="BY40" s="4"/>
@@ -3952,10 +3965,10 @@
         <v>1.55</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I41" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AZ41" s="4"/>
       <c r="BY41" s="4"/>
@@ -3963,13 +3976,13 @@
     </row>
     <row r="42" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42">
         <v>0.25</v>
       </c>
       <c r="I42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AZ42" s="4"/>
       <c r="BY42" s="4"/>
@@ -3994,13 +4007,13 @@
         <v>4</v>
       </c>
       <c r="B45" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
@@ -4107,51 +4120,51 @@
         <v>24</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H46" t="s">
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AB46" s="9"/>
     </row>
     <row r="47" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47">
-        <v>-0.35</v>
+        <v>1</v>
       </c>
       <c r="D47" s="11"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="I47" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J47" s="11"/>
       <c r="AB47" s="9"/>
     </row>
     <row r="48" spans="1:126" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B48">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="D48" s="11"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="I48" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J48" s="11"/>
       <c r="AB48" s="9"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -4160,13 +4173,13 @@
         <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AB49" s="9"/>
     </row>
     <row r="51" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA51" s="7"/>
     </row>
@@ -4181,7 +4194,7 @@
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.25">
@@ -4189,13 +4202,13 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="H53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.25">
@@ -4206,10 +4219,10 @@
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>182</v>
+        <v>324</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.25">
@@ -4220,10 +4233,10 @@
         <v>300</v>
       </c>
       <c r="H55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.25">
@@ -4234,10 +4247,10 @@
         <v>970</v>
       </c>
       <c r="H56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.25">
@@ -4248,10 +4261,10 @@
         <v>15</v>
       </c>
       <c r="H57" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.25">
@@ -4262,10 +4275,10 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.25">
@@ -4273,16 +4286,16 @@
         <v>14</v>
       </c>
       <c r="B59">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="H59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.25">
@@ -4293,10 +4306,10 @@
         <v>209</v>
       </c>
       <c r="H60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -4311,13 +4324,13 @@
       </c>
       <c r="B63">
         <f>0.123*B46</f>
-        <v>0.246</v>
+        <v>0.123</v>
       </c>
       <c r="H63" t="s">
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AB63" s="9"/>
     </row>
@@ -4327,13 +4340,13 @@
       </c>
       <c r="B64">
         <f>0.67*B46</f>
-        <v>1.34</v>
+        <v>0.67</v>
       </c>
       <c r="H64" t="s">
         <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AB64" s="9"/>
     </row>
@@ -4345,7 +4358,7 @@
         <v>0.3</v>
       </c>
       <c r="I65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AB65" s="9"/>
     </row>
@@ -4357,10 +4370,10 @@
         <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AB66" s="9"/>
     </row>
@@ -4372,7 +4385,7 @@
         <v>0.35</v>
       </c>
       <c r="I67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.25">
@@ -4383,7 +4396,7 @@
         <v>20.6</v>
       </c>
       <c r="I68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -4394,7 +4407,7 @@
         <v>0.2</v>
       </c>
       <c r="I69" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.25">
@@ -4405,7 +4418,7 @@
         <v>0.01</v>
       </c>
       <c r="I70" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.25">
@@ -4416,10 +4429,10 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.25">
@@ -4430,15 +4443,15 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I72" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA74" s="7"/>
     </row>
@@ -4447,10 +4460,10 @@
         <v>52</v>
       </c>
       <c r="B75" s="9">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AB75" s="9"/>
     </row>
@@ -4459,105 +4472,105 @@
         <v>53</v>
       </c>
       <c r="B76">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AB76" s="9"/>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>52.25</v>
       </c>
       <c r="H77" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I77" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AB77" s="9"/>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>5.69</v>
       </c>
       <c r="H78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I78" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AB78" s="9"/>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I79" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AA81" s="7"/>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B82" s="9">
         <v>30</v>
       </c>
       <c r="H82" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I82" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AB82" s="9"/>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B83" s="9">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I83" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AB83" s="9"/>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B84" s="9">
         <v>90</v>
       </c>
       <c r="H84" t="s">
+        <v>208</v>
+      </c>
+      <c r="I84" t="s">
         <v>211</v>
-      </c>
-      <c r="I84" t="s">
-        <v>214</v>
       </c>
       <c r="AB84" s="9"/>
     </row>
